--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Saa1-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Saa1-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Saa1</t>
+  </si>
+  <si>
+    <t>Fpr2</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Saa1</t>
-  </si>
-  <si>
-    <t>Fpr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -546,40 +543,40 @@
         <v>0.128052</v>
       </c>
       <c r="I2">
-        <v>0.8711494503102208</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8711494503102208</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.078566</v>
+        <v>0.559584</v>
       </c>
       <c r="N2">
-        <v>0.157132</v>
+        <v>1.678752</v>
       </c>
       <c r="O2">
-        <v>0.004019777884324682</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="P2">
-        <v>0.002683447543913378</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="Q2">
-        <v>0.003353511144</v>
+        <v>0.023885283456</v>
       </c>
       <c r="R2">
-        <v>0.020121066864</v>
+        <v>0.214967551104</v>
       </c>
       <c r="S2">
-        <v>0.00350182729429863</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="T2">
-        <v>0.002337683852816451</v>
+        <v>0.003429531108364747</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -608,40 +605,40 @@
         <v>0.128052</v>
       </c>
       <c r="I3">
-        <v>0.8711494503102208</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8711494503102208</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.559584</v>
+        <v>28.05830633333333</v>
       </c>
       <c r="N3">
-        <v>1.678752</v>
+        <v>84.17491899999999</v>
       </c>
       <c r="O3">
-        <v>0.02863074851235831</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="P3">
-        <v>0.02866916306824626</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="Q3">
-        <v>0.023885283456</v>
+        <v>1.197640747532</v>
       </c>
       <c r="R3">
-        <v>0.214967551104</v>
+        <v>10.778766727788</v>
       </c>
       <c r="S3">
-        <v>0.02494166082851111</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="T3">
-        <v>0.02497512564775681</v>
+        <v>0.1719613756258118</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -670,10 +667,10 @@
         <v>0.128052</v>
       </c>
       <c r="I4">
-        <v>0.8711494503102208</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8711494503102208</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.038439</v>
+        <v>131.297198</v>
       </c>
       <c r="N4">
-        <v>24.115317</v>
+        <v>393.891594</v>
       </c>
       <c r="O4">
-        <v>0.4112814616588985</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="P4">
-        <v>0.4118332877729713</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="Q4">
-        <v>0.343112730276</v>
+        <v>5.604289599432001</v>
       </c>
       <c r="R4">
-        <v>3.088014572484</v>
+        <v>50.438606394888</v>
       </c>
       <c r="S4">
-        <v>0.3582876192469335</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="T4">
-        <v>0.3587683422628749</v>
+        <v>0.8046831663916869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,412 +729,40 @@
         <v>0.128052</v>
       </c>
       <c r="I5">
-        <v>0.8711494503102208</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8711494503102208</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.050657</v>
+        <v>3.251240333333333</v>
       </c>
       <c r="N5">
-        <v>0.151971</v>
+        <v>9.753720999999999</v>
       </c>
       <c r="O5">
-        <v>0.002591832195685608</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="P5">
-        <v>0.002595309718555481</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="Q5">
-        <v>0.002162243388</v>
+        <v>0.138775942388</v>
       </c>
       <c r="R5">
-        <v>0.019460190492</v>
+        <v>1.248983481492</v>
       </c>
       <c r="S5">
-        <v>0.00225787319256785</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="T5">
-        <v>0.002260902634704381</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.042684</v>
-      </c>
-      <c r="H6">
-        <v>0.128052</v>
-      </c>
-      <c r="I6">
-        <v>0.8711494503102208</v>
-      </c>
-      <c r="J6">
-        <v>0.8711494503102208</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>10.817615</v>
-      </c>
-      <c r="N6">
-        <v>32.452845</v>
-      </c>
-      <c r="O6">
-        <v>0.553476179748733</v>
-      </c>
-      <c r="P6">
-        <v>0.5542187918963136</v>
-      </c>
-      <c r="Q6">
-        <v>0.4617390786600001</v>
-      </c>
-      <c r="R6">
-        <v>4.155651707940001</v>
-      </c>
-      <c r="S6">
-        <v>0.4821604697479097</v>
-      </c>
-      <c r="T6">
-        <v>0.4828073959120683</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.006313333333333334</v>
-      </c>
-      <c r="H7">
-        <v>0.01894</v>
-      </c>
-      <c r="I7">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="J7">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.5</v>
-      </c>
-      <c r="M7">
-        <v>0.078566</v>
-      </c>
-      <c r="N7">
-        <v>0.157132</v>
-      </c>
-      <c r="O7">
-        <v>0.004019777884324682</v>
-      </c>
-      <c r="P7">
-        <v>0.002683447543913378</v>
-      </c>
-      <c r="Q7">
-        <v>0.0004960133466666667</v>
-      </c>
-      <c r="R7">
-        <v>0.00297608008</v>
-      </c>
-      <c r="S7">
-        <v>0.0005179505900260524</v>
-      </c>
-      <c r="T7">
-        <v>0.0003457636910969262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.006313333333333334</v>
-      </c>
-      <c r="H8">
-        <v>0.01894</v>
-      </c>
-      <c r="I8">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="J8">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.559584</v>
-      </c>
-      <c r="N8">
-        <v>1.678752</v>
-      </c>
-      <c r="O8">
-        <v>0.02863074851235831</v>
-      </c>
-      <c r="P8">
-        <v>0.02866916306824626</v>
-      </c>
-      <c r="Q8">
-        <v>0.00353284032</v>
-      </c>
-      <c r="R8">
-        <v>0.03179556288</v>
-      </c>
-      <c r="S8">
-        <v>0.003689087683847192</v>
-      </c>
-      <c r="T8">
-        <v>0.003694037420489443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.006313333333333334</v>
-      </c>
-      <c r="H9">
-        <v>0.01894</v>
-      </c>
-      <c r="I9">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="J9">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>8.038439</v>
-      </c>
-      <c r="N9">
-        <v>24.115317</v>
-      </c>
-      <c r="O9">
-        <v>0.4112814616588985</v>
-      </c>
-      <c r="P9">
-        <v>0.4118332877729713</v>
-      </c>
-      <c r="Q9">
-        <v>0.05074934488666667</v>
-      </c>
-      <c r="R9">
-        <v>0.4567441039800001</v>
-      </c>
-      <c r="S9">
-        <v>0.05299384241196485</v>
-      </c>
-      <c r="T9">
-        <v>0.05306494551009631</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.006313333333333334</v>
-      </c>
-      <c r="H10">
-        <v>0.01894</v>
-      </c>
-      <c r="I10">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="J10">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.050657</v>
-      </c>
-      <c r="N10">
-        <v>0.151971</v>
-      </c>
-      <c r="O10">
-        <v>0.002591832195685608</v>
-      </c>
-      <c r="P10">
-        <v>0.002595309718555481</v>
-      </c>
-      <c r="Q10">
-        <v>0.0003198145266666667</v>
-      </c>
-      <c r="R10">
-        <v>0.00287833074</v>
-      </c>
-      <c r="S10">
-        <v>0.0003339590031177575</v>
-      </c>
-      <c r="T10">
-        <v>0.0003344070838510995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.006313333333333334</v>
-      </c>
-      <c r="H11">
-        <v>0.01894</v>
-      </c>
-      <c r="I11">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="J11">
-        <v>0.128850549689779</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>10.817615</v>
-      </c>
-      <c r="N11">
-        <v>32.452845</v>
-      </c>
-      <c r="O11">
-        <v>0.553476179748733</v>
-      </c>
-      <c r="P11">
-        <v>0.5542187918963136</v>
-      </c>
-      <c r="Q11">
-        <v>0.06829520936666668</v>
-      </c>
-      <c r="R11">
-        <v>0.6146568843000001</v>
-      </c>
-      <c r="S11">
-        <v>0.07131571000082319</v>
-      </c>
-      <c r="T11">
-        <v>0.07141139598424527</v>
+        <v>0.01992592687413657</v>
       </c>
     </row>
   </sheetData>
